--- a/Unity/Assets/Config/Excel/Datas/StartConfig/Release/StartMachineConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StartConfig/Release/StartMachineConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/LubanExcel/Datas/StartConfig/Release/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/LubanExcel/Datas/StartConfig/Localhost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96139542-B95C-9B47-AEED-1EBDF7B3FFCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605FBF5F-74AB-924E-AB12-23340EAB0AB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="7460" windowWidth="26740" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="6900" windowWidth="26740" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>192.178.50.111</t>
+    <t>127.0.0.1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -179,16 +179,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -466,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -536,9 +533,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6">
-        <v>2</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
@@ -552,13 +548,17 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
+      <c r="A5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="C7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7">
@@ -566,18 +566,25 @@
     </row>
     <row r="9" spans="1:7">
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
